--- a/biology/Zoologie/Antrechinus/Antrechinus.xlsx
+++ b/biology/Zoologie/Antrechinus/Antrechinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrechinus est un genre d'oursins irréguliers de la famille des Urechinidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins très irréguliers, dont la forme a évolué de la sphère vers une forme ovale et bombée, avec une face inférieure plane. Ces oursins sont structurés selon une symétrie bilatérale secondaire, avec la bouche à l'« avant » et l'anus à l'« arrière ». Les piquants (« radioles ») sont courts, fins et clairsemés.
-Leur test est fin et très fragile. Ce genre se distingue des autres au sein de cette famille par ses 4 plaques génitales portant chacune un gonopore[2].
-C'est l'une des quelques espèces d'oursins pour lesquelles les femelles « élèvent » les juvéniles grâce à des organes spécialisés[2]. 
+Leur test est fin et très fragile. Ce genre se distingue des autres au sein de cette famille par ses 4 plaques génitales portant chacune un gonopore.
+C'est l'une des quelques espèces d'oursins pour lesquelles les femelles « élèvent » les juvéniles grâce à des organes spécialisés. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 mars 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 mars 2021) :
 Antrechinus drygalskii (Mortensen, 1905)
 Antrechinus mortenseni (David &amp; Mooi, 1990)
 Antrechinus nordenskjoldi (Mortensen, 1905)
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) R. Mooi et B. David, « Phylogenetic analysis of extreme morphologies: deep-sea holasteroid echinoids », Journal of Natural History, Taylor &amp; Francis, vol. 30, no 6,‎ juin 1996, p. 913-953 (ISSN 0022-2933 et 1464-5262, DOI 10.1080/00222939600770501, lire en ligne)</t>
         </is>
